--- a/接线汇总.xlsx
+++ b/接线汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Others\Learning\MCU\32\myproject\MYCAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Others\Learning\MCU\32\myproject\MYCAR-Blueteeth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA7694-4B59-42EE-A231-665DDABBD6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0959C23-0F8F-4BCE-B0B5-8815A08CB9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="410" windowWidth="17930" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="410" windowWidth="19500" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,14 +418,6 @@
     <t>VDD_3</t>
   </si>
   <si>
-    <t>OLED-SCK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED-SDA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>MCU6050-SCL</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -503,6 +495,14 @@
   </si>
   <si>
     <t>OSC32_OUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC05-RX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC05-TX</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +684,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -987,15 +987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1089,8 +1089,8 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>153</v>
+      <c r="F6" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>56</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>62</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,6 +1644,9 @@
         <v>83</v>
       </c>
       <c r="G32" s="7"/>
+      <c r="H32" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
@@ -1665,6 +1668,9 @@
         <v>85</v>
       </c>
       <c r="G33" s="7"/>
+      <c r="H33" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
@@ -1686,9 +1692,6 @@
         <v>88</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="11" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
@@ -1710,9 +1713,6 @@
         <v>91</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="11" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -1874,7 +1874,7 @@
         <v>113</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
         <v>116</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>119</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1969,7 +1969,7 @@
         <v>124</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>127</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
